--- a/database/industries/ghaza/ghebshahr/income/quarterly/rial.xlsx
+++ b/database/industries/ghaza/ghebshahr/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghebshahr\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\ghebshahr\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB99D31-C8E1-446F-88F6-D158502984EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EED91E4-F1F5-4ACA-B173-B13C147F0C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>غبشهر-صنعتی‌ بهشهر</t>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل اول منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-12-12 (8)</t>
+  </si>
+  <si>
+    <t>1399-01-30 (2)</t>
+  </si>
+  <si>
+    <t>1399-05-29 (4)</t>
+  </si>
+  <si>
+    <t>1399-07-23 (2)</t>
+  </si>
+  <si>
+    <t>1400-01-19 (8)</t>
+  </si>
+  <si>
+    <t>1400-01-21 (2)</t>
+  </si>
+  <si>
+    <t>1400-05-31 (4)</t>
+  </si>
+  <si>
+    <t>1400-07-27 (2)</t>
+  </si>
+  <si>
     <t>1401-01-20 (8)</t>
   </si>
   <si>
@@ -88,18 +142,24 @@
     <t>1402-01-30 (2)</t>
   </si>
   <si>
-    <t>1401-05-30 (3)</t>
-  </si>
-  <si>
-    <t>1401-07-30</t>
-  </si>
-  <si>
-    <t>1402-01-30 (4)</t>
+    <t>1402-05-14 (5)</t>
+  </si>
+  <si>
+    <t>1402-08-01 (3)</t>
+  </si>
+  <si>
+    <t>1402-08-01 (8)</t>
   </si>
   <si>
     <t>1402-01-30</t>
   </si>
   <si>
+    <t>1402-05-14 (2)</t>
+  </si>
+  <si>
+    <t>1402-08-01 (2)</t>
+  </si>
+  <si>
     <t>فروش</t>
   </si>
   <si>
@@ -115,19 +175,22 @@
     <t>هزینه کاهش ارزش دریافتنی‌‏ها (هزینه استثنایی)</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>خالص سایر درامدها (هزینه ها) ی عملیاتی</t>
   </si>
   <si>
     <t>سود (زیان) عملیاتی</t>
   </si>
   <si>
-    <t>هزینه های مالی</t>
-  </si>
-  <si>
-    <t>خالص سایر درامدها و هزینه های غیرعملیاتی</t>
-  </si>
-  <si>
-    <t>سود (زیان) خالص عملیات در حال تداوم قبل از مالیات</t>
+    <t>هزینه‌های مالی</t>
+  </si>
+  <si>
+    <t>خالص سایر درآمدها و هزینه‌های غیرعملیاتی</t>
+  </si>
+  <si>
+    <t>سود (زیان) عملیات در حال تداوم قبل از مالیات</t>
   </si>
   <si>
     <t>مالیات</t>
@@ -615,23 +678,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="S7" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13:W28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
     <col min="9" max="11" width="29" customWidth="1"/>
     <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="13" max="15" width="29" customWidth="1"/>
+    <col min="16" max="16" width="31" customWidth="1"/>
+    <col min="17" max="19" width="29" customWidth="1"/>
+    <col min="20" max="20" width="31" customWidth="1"/>
+    <col min="21" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,8 +713,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,8 +739,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,8 +765,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,8 +789,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,8 +815,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,8 +841,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,8 +865,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,44 +911,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,158 +1021,288 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>8986614</v>
+      </c>
+      <c r="E11" s="13">
+        <v>5874030</v>
+      </c>
+      <c r="F11" s="13">
+        <v>6961266</v>
+      </c>
+      <c r="G11" s="13">
+        <v>8956378</v>
+      </c>
+      <c r="H11" s="13">
+        <v>9247205</v>
+      </c>
+      <c r="I11" s="13">
+        <v>9402144</v>
+      </c>
+      <c r="J11" s="13">
+        <v>6189742</v>
+      </c>
+      <c r="K11" s="13">
+        <v>5759417</v>
+      </c>
+      <c r="L11" s="13">
         <v>5158686</v>
       </c>
-      <c r="E11" s="13">
+      <c r="M11" s="13">
         <v>12042147</v>
       </c>
-      <c r="F11" s="13">
+      <c r="N11" s="13">
         <v>14363462</v>
       </c>
-      <c r="G11" s="13">
+      <c r="O11" s="13">
         <v>16930651</v>
       </c>
-      <c r="H11" s="13">
+      <c r="P11" s="13">
         <v>14364711</v>
       </c>
-      <c r="I11" s="13">
+      <c r="Q11" s="13">
         <v>17258787</v>
       </c>
-      <c r="J11" s="13">
+      <c r="R11" s="13">
         <v>30891878</v>
       </c>
-      <c r="K11" s="13">
+      <c r="S11" s="13">
         <v>56510850</v>
       </c>
-      <c r="L11" s="13">
+      <c r="T11" s="13">
         <v>47723825</v>
       </c>
-      <c r="M11" s="13">
+      <c r="U11" s="13">
         <v>58622289</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V11" s="13">
+        <v>46518971</v>
+      </c>
+      <c r="W11" s="13">
+        <v>36185310</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-7620146</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-5101526</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-6084795</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-7399109</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-7807790</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-7811400</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-5135645</v>
+      </c>
+      <c r="K12" s="11">
+        <v>-4547255</v>
+      </c>
+      <c r="L12" s="11">
         <v>-4042030</v>
       </c>
-      <c r="E12" s="11">
+      <c r="M12" s="11">
         <v>-9086983</v>
       </c>
-      <c r="F12" s="11">
+      <c r="N12" s="11">
         <v>-11442916</v>
       </c>
-      <c r="G12" s="11">
+      <c r="O12" s="11">
         <v>-14773992</v>
       </c>
-      <c r="H12" s="11">
+      <c r="P12" s="11">
         <v>-12069902</v>
       </c>
-      <c r="I12" s="11">
+      <c r="Q12" s="11">
         <v>-15182660</v>
       </c>
-      <c r="J12" s="11">
+      <c r="R12" s="11">
         <v>-24586551</v>
       </c>
-      <c r="K12" s="11">
+      <c r="S12" s="11">
         <v>-50284965</v>
       </c>
-      <c r="L12" s="11">
+      <c r="T12" s="11">
         <v>-42591544</v>
       </c>
-      <c r="M12" s="11">
+      <c r="U12" s="11">
         <v>-50558935</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="11">
+        <v>-40295862</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-32561145</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>1366468</v>
+      </c>
+      <c r="E13" s="15">
+        <v>772504</v>
+      </c>
+      <c r="F13" s="15">
+        <v>876471</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1557269</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1439415</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1590744</v>
+      </c>
+      <c r="J13" s="15">
+        <v>1054097</v>
+      </c>
+      <c r="K13" s="15">
+        <v>1212162</v>
+      </c>
+      <c r="L13" s="15">
         <v>1116656</v>
       </c>
-      <c r="E13" s="15">
+      <c r="M13" s="15">
         <v>2955164</v>
       </c>
-      <c r="F13" s="15">
+      <c r="N13" s="15">
         <v>2920546</v>
       </c>
-      <c r="G13" s="15">
+      <c r="O13" s="15">
         <v>2156659</v>
       </c>
-      <c r="H13" s="15">
+      <c r="P13" s="15">
         <v>2294809</v>
       </c>
-      <c r="I13" s="15">
+      <c r="Q13" s="15">
         <v>2076127</v>
       </c>
-      <c r="J13" s="15">
+      <c r="R13" s="15">
         <v>6305327</v>
       </c>
-      <c r="K13" s="15">
+      <c r="S13" s="15">
         <v>6225885</v>
       </c>
-      <c r="L13" s="15">
+      <c r="T13" s="15">
         <v>5132281</v>
       </c>
-      <c r="M13" s="15">
+      <c r="U13" s="15">
         <v>8063354</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="15">
+        <v>6223109</v>
+      </c>
+      <c r="W13" s="15">
+        <v>3624165</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-367363</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-284133</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-342488</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-336031</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-455319</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-337113</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-425572</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-449194</v>
+      </c>
+      <c r="L14" s="11">
         <v>-317399</v>
       </c>
-      <c r="E14" s="11">
+      <c r="M14" s="11">
         <v>-545719</v>
       </c>
-      <c r="F14" s="11">
+      <c r="N14" s="11">
         <v>-539846</v>
       </c>
-      <c r="G14" s="11">
+      <c r="O14" s="11">
         <v>-562371</v>
       </c>
-      <c r="H14" s="11">
+      <c r="P14" s="11">
         <v>-626101</v>
       </c>
-      <c r="I14" s="11">
+      <c r="Q14" s="11">
         <v>-595085</v>
       </c>
-      <c r="J14" s="11">
+      <c r="R14" s="11">
         <v>-816321</v>
       </c>
-      <c r="K14" s="11">
+      <c r="S14" s="11">
         <v>-862606</v>
       </c>
-      <c r="L14" s="11">
+      <c r="T14" s="11">
         <v>-1045098</v>
       </c>
-      <c r="M14" s="11">
+      <c r="U14" s="11">
         <v>-866212</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="11">
+        <v>-1136702</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-1353382</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="13">
-        <v>0</v>
+      <c r="D15" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -1002,262 +1331,502 @@
       <c r="M15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>-13226</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-43516</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-86270</v>
+      </c>
+      <c r="G16" s="11">
+        <v>73839</v>
+      </c>
+      <c r="H16" s="11">
+        <v>61497</v>
+      </c>
+      <c r="I16" s="11">
+        <v>63960</v>
+      </c>
+      <c r="J16" s="11">
+        <v>15260</v>
+      </c>
+      <c r="K16" s="11">
+        <v>67227</v>
+      </c>
+      <c r="L16" s="11">
         <v>-562038</v>
       </c>
-      <c r="E16" s="11">
+      <c r="M16" s="11">
         <v>103249</v>
       </c>
-      <c r="F16" s="11">
+      <c r="N16" s="11">
         <v>103204</v>
       </c>
-      <c r="G16" s="11">
+      <c r="O16" s="11">
         <v>135880</v>
       </c>
-      <c r="H16" s="11">
+      <c r="P16" s="11">
         <v>93880</v>
       </c>
-      <c r="I16" s="11">
+      <c r="Q16" s="11">
         <v>145215</v>
       </c>
-      <c r="J16" s="11">
+      <c r="R16" s="11">
         <v>116278</v>
       </c>
-      <c r="K16" s="11">
+      <c r="S16" s="11">
         <v>102530</v>
       </c>
-      <c r="L16" s="11">
+      <c r="T16" s="11">
         <v>-485743</v>
       </c>
-      <c r="M16" s="11">
+      <c r="U16" s="11">
         <v>155793</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V16" s="11">
+        <v>143530</v>
+      </c>
+      <c r="W16" s="11">
+        <v>-272132</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>985879</v>
+      </c>
+      <c r="E17" s="15">
+        <v>444855</v>
+      </c>
+      <c r="F17" s="15">
+        <v>447713</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1295077</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1045593</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1317591</v>
+      </c>
+      <c r="J17" s="15">
+        <v>643785</v>
+      </c>
+      <c r="K17" s="15">
+        <v>830195</v>
+      </c>
+      <c r="L17" s="15">
         <v>237219</v>
       </c>
-      <c r="E17" s="15">
+      <c r="M17" s="15">
         <v>2512694</v>
       </c>
-      <c r="F17" s="15">
+      <c r="N17" s="15">
         <v>2483904</v>
       </c>
-      <c r="G17" s="15">
+      <c r="O17" s="15">
         <v>1730168</v>
       </c>
-      <c r="H17" s="15">
+      <c r="P17" s="15">
         <v>1762588</v>
       </c>
-      <c r="I17" s="15">
+      <c r="Q17" s="15">
         <v>1626257</v>
       </c>
-      <c r="J17" s="15">
+      <c r="R17" s="15">
         <v>5605284</v>
       </c>
-      <c r="K17" s="15">
+      <c r="S17" s="15">
         <v>5465809</v>
       </c>
-      <c r="L17" s="15">
+      <c r="T17" s="15">
         <v>3601440</v>
       </c>
-      <c r="M17" s="15">
+      <c r="U17" s="15">
         <v>7352935</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V17" s="15">
+        <v>5229937</v>
+      </c>
+      <c r="W17" s="15">
+        <v>1998651</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-84472</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-23759</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-10353</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-78680</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-169299</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-66657</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-140</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-3918</v>
+      </c>
+      <c r="L18" s="11">
         <v>-121013</v>
       </c>
-      <c r="E18" s="11">
+      <c r="M18" s="11">
         <v>-148934</v>
       </c>
-      <c r="F18" s="11">
+      <c r="N18" s="11">
         <v>-617465</v>
       </c>
-      <c r="G18" s="11">
+      <c r="O18" s="11">
         <v>-806905</v>
       </c>
-      <c r="H18" s="11">
+      <c r="P18" s="11">
         <v>-542028</v>
       </c>
-      <c r="I18" s="11">
+      <c r="Q18" s="11">
         <v>-598892</v>
       </c>
-      <c r="J18" s="11">
+      <c r="R18" s="11">
         <v>-510663</v>
       </c>
-      <c r="K18" s="11">
+      <c r="S18" s="11">
         <v>-722210</v>
       </c>
-      <c r="L18" s="11">
+      <c r="T18" s="11">
         <v>-1496499</v>
       </c>
-      <c r="M18" s="11">
+      <c r="U18" s="11">
         <v>-1465226</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V18" s="11">
+        <v>-1305717</v>
+      </c>
+      <c r="W18" s="11">
+        <v>-1687902</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>-335816</v>
+      </c>
+      <c r="E19" s="13">
+        <v>14467</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-62710</v>
+      </c>
+      <c r="G19" s="13">
+        <v>-16991</v>
+      </c>
+      <c r="H19" s="13">
+        <v>169489</v>
+      </c>
+      <c r="I19" s="13">
+        <v>-116723</v>
+      </c>
+      <c r="J19" s="13">
+        <v>-238147</v>
+      </c>
+      <c r="K19" s="13">
+        <v>-601380</v>
+      </c>
+      <c r="L19" s="13">
         <v>895925</v>
       </c>
-      <c r="E19" s="13">
+      <c r="M19" s="13">
         <v>18433</v>
       </c>
-      <c r="F19" s="13">
+      <c r="N19" s="13">
         <v>290824</v>
       </c>
-      <c r="G19" s="13">
+      <c r="O19" s="13">
         <v>-116169</v>
       </c>
-      <c r="H19" s="13">
+      <c r="P19" s="13">
         <v>28117</v>
       </c>
-      <c r="I19" s="13">
+      <c r="Q19" s="13">
         <v>331806</v>
       </c>
-      <c r="J19" s="13">
+      <c r="R19" s="13">
         <v>331151</v>
       </c>
-      <c r="K19" s="13">
+      <c r="S19" s="13">
         <v>147473</v>
       </c>
-      <c r="L19" s="13">
+      <c r="T19" s="13">
         <v>-165158</v>
       </c>
-      <c r="M19" s="13">
+      <c r="U19" s="13">
         <v>169539</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V19" s="13">
+        <v>-613607</v>
+      </c>
+      <c r="W19" s="13">
+        <v>257676</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>565591</v>
+      </c>
+      <c r="E20" s="17">
+        <v>435563</v>
+      </c>
+      <c r="F20" s="17">
+        <v>374650</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1199406</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1045783</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1134211</v>
+      </c>
+      <c r="J20" s="17">
+        <v>405498</v>
+      </c>
+      <c r="K20" s="17">
+        <v>224897</v>
+      </c>
+      <c r="L20" s="17">
         <v>1012131</v>
       </c>
-      <c r="E20" s="17">
+      <c r="M20" s="17">
         <v>2382193</v>
       </c>
-      <c r="F20" s="17">
+      <c r="N20" s="17">
         <v>2157263</v>
       </c>
-      <c r="G20" s="17">
+      <c r="O20" s="17">
         <v>807094</v>
       </c>
-      <c r="H20" s="17">
+      <c r="P20" s="17">
         <v>1248677</v>
       </c>
-      <c r="I20" s="17">
+      <c r="Q20" s="17">
         <v>1359171</v>
       </c>
-      <c r="J20" s="17">
+      <c r="R20" s="17">
         <v>5425772</v>
       </c>
-      <c r="K20" s="17">
+      <c r="S20" s="17">
         <v>4891072</v>
       </c>
-      <c r="L20" s="17">
+      <c r="T20" s="17">
         <v>1939783</v>
       </c>
-      <c r="M20" s="17">
+      <c r="U20" s="17">
         <v>6057248</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V20" s="17">
+        <v>3310613</v>
+      </c>
+      <c r="W20" s="17">
+        <v>568425</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-190584</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-125241</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-239723</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-345507</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-248177</v>
+      </c>
+      <c r="I21" s="13">
+        <v>-295073</v>
+      </c>
+      <c r="J21" s="13">
+        <v>-252795</v>
+      </c>
+      <c r="K21" s="13">
+        <v>-259806</v>
+      </c>
+      <c r="L21" s="13">
         <v>-282344</v>
       </c>
-      <c r="E21" s="13">
+      <c r="M21" s="13">
         <v>-485435</v>
       </c>
-      <c r="F21" s="13">
+      <c r="N21" s="13">
         <v>-656136</v>
       </c>
-      <c r="G21" s="13">
+      <c r="O21" s="13">
         <v>-375952</v>
       </c>
-      <c r="H21" s="13">
+      <c r="P21" s="13">
         <v>-70628</v>
       </c>
-      <c r="I21" s="13">
+      <c r="Q21" s="13">
         <v>-485767</v>
       </c>
-      <c r="J21" s="13">
+      <c r="R21" s="13">
         <v>-1018136</v>
       </c>
-      <c r="K21" s="13">
+      <c r="S21" s="13">
         <v>-1188751</v>
       </c>
-      <c r="L21" s="13">
+      <c r="T21" s="13">
         <v>553608</v>
       </c>
-      <c r="M21" s="13">
+      <c r="U21" s="13">
         <v>-1384123</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V21" s="13">
+        <v>-1016865</v>
+      </c>
+      <c r="W21" s="13">
+        <v>-342348</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>375007</v>
+      </c>
+      <c r="E22" s="17">
+        <v>310322</v>
+      </c>
+      <c r="F22" s="17">
+        <v>134927</v>
+      </c>
+      <c r="G22" s="17">
+        <v>853899</v>
+      </c>
+      <c r="H22" s="17">
+        <v>797606</v>
+      </c>
+      <c r="I22" s="17">
+        <v>839138</v>
+      </c>
+      <c r="J22" s="17">
+        <v>152703</v>
+      </c>
+      <c r="K22" s="17">
+        <v>-34909</v>
+      </c>
+      <c r="L22" s="17">
         <v>729787</v>
       </c>
-      <c r="E22" s="17">
+      <c r="M22" s="17">
         <v>1896758</v>
       </c>
-      <c r="F22" s="17">
+      <c r="N22" s="17">
         <v>1501127</v>
       </c>
-      <c r="G22" s="17">
+      <c r="O22" s="17">
         <v>431142</v>
       </c>
-      <c r="H22" s="17">
+      <c r="P22" s="17">
         <v>1178049</v>
       </c>
-      <c r="I22" s="17">
+      <c r="Q22" s="17">
         <v>873404</v>
       </c>
-      <c r="J22" s="17">
+      <c r="R22" s="17">
         <v>4407636</v>
       </c>
-      <c r="K22" s="17">
+      <c r="S22" s="17">
         <v>3702321</v>
       </c>
-      <c r="L22" s="17">
+      <c r="T22" s="17">
         <v>2493391</v>
       </c>
-      <c r="M22" s="17">
+      <c r="U22" s="17">
         <v>4673125</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V22" s="17">
+        <v>2293748</v>
+      </c>
+      <c r="W22" s="17">
+        <v>226077</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1290,152 +1859,302 @@
       <c r="M23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>375007</v>
+      </c>
+      <c r="E24" s="17">
+        <v>310322</v>
+      </c>
+      <c r="F24" s="17">
+        <v>134927</v>
+      </c>
+      <c r="G24" s="17">
+        <v>853899</v>
+      </c>
+      <c r="H24" s="17">
+        <v>797606</v>
+      </c>
+      <c r="I24" s="17">
+        <v>839138</v>
+      </c>
+      <c r="J24" s="17">
+        <v>152703</v>
+      </c>
+      <c r="K24" s="17">
+        <v>-34909</v>
+      </c>
+      <c r="L24" s="17">
         <v>729787</v>
       </c>
-      <c r="E24" s="17">
+      <c r="M24" s="17">
         <v>1896758</v>
       </c>
-      <c r="F24" s="17">
+      <c r="N24" s="17">
         <v>1501127</v>
       </c>
-      <c r="G24" s="17">
+      <c r="O24" s="17">
         <v>431142</v>
       </c>
-      <c r="H24" s="17">
+      <c r="P24" s="17">
         <v>1178049</v>
       </c>
-      <c r="I24" s="17">
+      <c r="Q24" s="17">
         <v>873404</v>
       </c>
-      <c r="J24" s="17">
+      <c r="R24" s="17">
         <v>4407636</v>
       </c>
-      <c r="K24" s="17">
+      <c r="S24" s="17">
         <v>3702321</v>
       </c>
-      <c r="L24" s="17">
+      <c r="T24" s="17">
         <v>2493391</v>
       </c>
-      <c r="M24" s="17">
+      <c r="U24" s="17">
         <v>4673125</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V24" s="17">
+        <v>2293748</v>
+      </c>
+      <c r="W24" s="17">
+        <v>226077</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>125</v>
+      </c>
+      <c r="E25" s="13">
+        <v>103</v>
+      </c>
+      <c r="F25" s="13">
+        <v>45</v>
+      </c>
+      <c r="G25" s="13">
+        <v>285</v>
+      </c>
+      <c r="H25" s="13">
+        <v>266</v>
+      </c>
+      <c r="I25" s="13">
+        <v>280</v>
+      </c>
+      <c r="J25" s="13">
+        <v>51</v>
+      </c>
+      <c r="K25" s="13">
+        <v>-12</v>
+      </c>
+      <c r="L25" s="13">
         <v>243</v>
       </c>
-      <c r="E25" s="13">
+      <c r="M25" s="13">
         <v>86</v>
       </c>
-      <c r="F25" s="13">
+      <c r="N25" s="13">
         <v>68</v>
       </c>
-      <c r="G25" s="13">
+      <c r="O25" s="13">
         <v>20</v>
       </c>
-      <c r="H25" s="13">
+      <c r="P25" s="13">
         <v>54</v>
       </c>
-      <c r="I25" s="13">
+      <c r="Q25" s="13">
         <v>30</v>
       </c>
-      <c r="J25" s="13">
-        <v>200</v>
-      </c>
-      <c r="K25" s="13">
-        <v>168</v>
-      </c>
-      <c r="L25" s="13">
+      <c r="R25" s="13">
+        <v>149</v>
+      </c>
+      <c r="S25" s="13">
+        <v>126</v>
+      </c>
+      <c r="T25" s="13">
         <v>85</v>
       </c>
-      <c r="M25" s="13">
+      <c r="U25" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V25" s="13">
+        <v>78</v>
+      </c>
+      <c r="W25" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
         <v>3000000</v>
       </c>
       <c r="E26" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="F26" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="G26" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="H26" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="I26" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="M26" s="11">
         <v>22000000</v>
       </c>
-      <c r="F26" s="11">
+      <c r="N26" s="11">
         <v>22000000</v>
       </c>
-      <c r="G26" s="11">
+      <c r="O26" s="11">
         <v>22000000</v>
       </c>
-      <c r="H26" s="11">
+      <c r="P26" s="11">
         <v>22000000</v>
       </c>
-      <c r="I26" s="11">
+      <c r="Q26" s="11">
         <v>29500000</v>
       </c>
-      <c r="J26" s="11">
-        <v>22000000</v>
-      </c>
-      <c r="K26" s="11">
-        <v>22000000</v>
-      </c>
-      <c r="L26" s="11">
+      <c r="R26" s="11">
         <v>29500000</v>
       </c>
-      <c r="M26" s="11">
+      <c r="S26" s="11">
         <v>29500000</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="T26" s="11">
+        <v>29500000</v>
+      </c>
+      <c r="U26" s="11">
+        <v>29500000</v>
+      </c>
+      <c r="V26" s="11">
+        <v>29500000</v>
+      </c>
+      <c r="W26" s="11">
+        <v>29500000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>13</v>
+      </c>
+      <c r="E27" s="13">
+        <v>11</v>
+      </c>
+      <c r="F27" s="13">
+        <v>5</v>
+      </c>
+      <c r="G27" s="13">
+        <v>29</v>
+      </c>
+      <c r="H27" s="13">
+        <v>27</v>
+      </c>
+      <c r="I27" s="13">
+        <v>28</v>
+      </c>
+      <c r="J27" s="13">
+        <v>5</v>
+      </c>
+      <c r="K27" s="13">
+        <v>-1</v>
+      </c>
+      <c r="L27" s="13">
         <v>25</v>
       </c>
-      <c r="E27" s="13">
+      <c r="M27" s="13">
         <v>64</v>
       </c>
-      <c r="F27" s="13">
+      <c r="N27" s="13">
         <v>51</v>
       </c>
-      <c r="G27" s="13">
+      <c r="O27" s="13">
         <v>15</v>
       </c>
-      <c r="H27" s="13">
+      <c r="P27" s="13">
         <v>40</v>
       </c>
-      <c r="I27" s="13">
+      <c r="Q27" s="13">
         <v>30</v>
       </c>
-      <c r="J27" s="13">
+      <c r="R27" s="13">
         <v>149</v>
       </c>
-      <c r="K27" s="13">
+      <c r="S27" s="13">
         <v>126</v>
       </c>
-      <c r="L27" s="13">
+      <c r="T27" s="13">
         <v>85</v>
       </c>
-      <c r="M27" s="13">
+      <c r="U27" s="13">
         <v>158</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V27" s="13">
+        <v>78</v>
+      </c>
+      <c r="W27" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1448,6 +2167,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
